--- a/문서/SkillRank.xlsx
+++ b/문서/SkillRank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88A89823-537F-44BF-8D5F-DF8E22E59DB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E96887-0E7F-4134-8FC4-6B840F9985BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B1F81C8A-E46B-45E2-BA0A-0CCEA92D033B}"/>
+    <workbookView xWindow="7515" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{B1F81C8A-E46B-45E2-BA0A-0CCEA92D033B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,180 +400,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF99F312-90DC-4B0E-88F4-4AFA09E8A3CC}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
         <v>10</v>
+      </c>
+      <c r="C21">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/문서/SkillRank.xlsx
+++ b/문서/SkillRank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E96887-0E7F-4134-8FC4-6B840F9985BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F002A725-D119-469E-AF98-59EB65147E31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7515" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{B1F81C8A-E46B-45E2-BA0A-0CCEA92D033B}"/>
+    <workbookView xWindow="2100" yWindow="2745" windowWidth="23910" windowHeight="11295" xr2:uid="{B1F81C8A-E46B-45E2-BA0A-0CCEA92D033B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF99F312-90DC-4B0E-88F4-4AFA09E8A3CC}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
